--- a/data/trans_dic/P25C$pormicuenta_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25C$pormicuenta_2023-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8824047989251661</v>
+        <v>0.8824047989251659</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8743364488045589</v>
+        <v>0.8743364488045583</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8796047054239753</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8069062967811804</v>
+        <v>0.794853660776463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7934375562189497</v>
+        <v>0.8007018811699218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8231292708103871</v>
+        <v>0.8190201195197191</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9356712311683757</v>
+        <v>0.9341227815012233</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9315067857642376</v>
+        <v>0.928087272950281</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9219803526478247</v>
+        <v>0.917316343461326</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8417744739150477</v>
+        <v>0.8468596902360753</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8513752379507746</v>
+        <v>0.8448551574277456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8716933041051208</v>
+        <v>0.8689615280598781</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9592803005975634</v>
+        <v>0.9587433453665817</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9658921017230762</v>
+        <v>0.9602170233187155</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.946910173909871</v>
+        <v>0.9486957145650257</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.907982436752405</v>
+        <v>0.9079824367524049</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9172588144714426</v>
+        <v>0.9172588144714425</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.909630341718062</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8512295681395806</v>
+        <v>0.8473783217123009</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7662490757467177</v>
+        <v>0.7766060784074623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8532114049606687</v>
+        <v>0.8547239284470759</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9536064788710191</v>
+        <v>0.9551846104792296</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9816396408204916</v>
+        <v>0.9811078186790886</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9505762415215657</v>
+        <v>0.9461999693263292</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.8904635622238847</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8999434493130369</v>
+        <v>0.899943449313037</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8931890594758536</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8436266964013901</v>
+        <v>0.8440291088531584</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8363999648424019</v>
+        <v>0.8329604022365272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8505765132448615</v>
+        <v>0.8581601928954674</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9270018736918685</v>
+        <v>0.9277205688250019</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9435184512192604</v>
+        <v>0.9424980850760126</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9212707471822944</v>
+        <v>0.9223308840045324</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8193301570353668</v>
+        <v>0.8067723404642566</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8055451794631288</v>
+        <v>0.7985311623282125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8293292924367953</v>
+        <v>0.8349400644580827</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.942438550922448</v>
+        <v>0.9388027618789603</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9265371715961815</v>
+        <v>0.9212573367068149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9198608730651899</v>
+        <v>0.920395880725982</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.7849606616012469</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9692292895590581</v>
+        <v>0.9692292895590578</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9418328414962399</v>
+        <v>0.9418328414962397</v>
       </c>
     </row>
     <row r="20">
@@ -859,10 +859,10 @@
         <v>0.2852400560013775</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.89839244332556</v>
+        <v>0.8990945370373009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8582389755297646</v>
+        <v>0.849894951027496</v>
       </c>
     </row>
     <row r="21">
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9843932514314891</v>
+        <v>0.98496254276413</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.9003216317065132</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.89622713228329</v>
+        <v>0.8962271322832899</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8677018375586969</v>
+        <v>0.8669574703460661</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8706221885725109</v>
+        <v>0.8721668794809473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8771632510234237</v>
+        <v>0.87573533082682</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9158984535153524</v>
+        <v>0.9170759872540704</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.923468095207734</v>
+        <v>0.9254080323578906</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9144322788646726</v>
+        <v>0.9124393967977539</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105398</v>
+        <v>103824</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>55084</v>
+        <v>55589</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>164662</v>
+        <v>163840</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>122217</v>
+        <v>122015</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64670</v>
+        <v>64432</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>184437</v>
+        <v>183504</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>86156</v>
+        <v>86677</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>53497</v>
+        <v>53087</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>143993</v>
+        <v>143542</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>98183</v>
+        <v>98128</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60693</v>
+        <v>60336</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>156418</v>
+        <v>156713</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>89377</v>
+        <v>88972</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17380</v>
+        <v>17615</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>108937</v>
+        <v>109130</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>100126</v>
+        <v>100292</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22266</v>
+        <v>22253</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>121369</v>
+        <v>120810</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>177940</v>
+        <v>178025</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>71187</v>
+        <v>70894</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>251800</v>
+        <v>254045</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>195526</v>
+        <v>195678</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>80304</v>
+        <v>80217</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>272727</v>
+        <v>273041</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>77212</v>
+        <v>76029</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>64295</v>
+        <v>63735</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>144347</v>
+        <v>145324</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88814</v>
+        <v>88471</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>73952</v>
+        <v>73530</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>160105</v>
+        <v>160198</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>1901</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>34289</v>
+        <v>34316</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>38477</v>
+        <v>38103</v>
       </c>
     </row>
     <row r="27">
@@ -1461,7 +1461,7 @@
         <v>38167</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>44133</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>563829</v>
+        <v>563345</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>311714</v>
+        <v>312267</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>884032</v>
+        <v>882593</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>595147</v>
+        <v>595912</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>330635</v>
+        <v>331329</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>921593</v>
+        <v>919585</v>
       </c>
     </row>
     <row r="32">
